--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_21-10.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_21-10.xlsx
@@ -32,13 +32,19 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AIRONYL 1.5MG/5ML SYRUP 120ML</t>
   </si>
   <si>
     <t>2:0</t>
-  </si>
-  <si>
-    <t>1:0</t>
   </si>
   <si>
     <t>AMAGLUST 4/30 MG 30 SCORED TAB</t>
@@ -1036,7 +1042,7 @@
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="9">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M4" s="9"/>
       <c t="s" r="N4" s="7">
@@ -1062,11 +1068,11 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" ht="24.75" customHeight="1">
@@ -1074,7 +1080,7 @@
         <v>3</v>
       </c>
       <c t="s" r="B6" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1082,17 +1088,17 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -1100,7 +1106,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1108,13 +1114,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -1126,7 +1132,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1134,17 +1140,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>14.300000000000001</v>
+        <v>45</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -1166,11 +1172,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>18</v>
+        <v>14.300000000000001</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1192,11 +1198,11 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1212,17 +1218,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1230,7 +1236,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1244,11 +1250,11 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1256,7 +1262,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1264,17 +1270,17 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>19.899999999999999</v>
+        <v>78</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -1290,17 +1296,17 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>72</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
@@ -1308,7 +1314,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1316,13 +1322,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
@@ -1334,7 +1340,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1342,17 +1348,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1368,17 +1374,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1394,17 +1400,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1412,7 +1418,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1420,17 +1426,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1446,17 +1452,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1464,7 +1470,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1472,17 +1478,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1490,7 +1496,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1498,13 +1504,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>-200</v>
+        <v>120</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1524,17 +1530,17 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>47.5</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1">
@@ -1542,7 +1548,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1550,17 +1556,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>42</v>
+        <v>47.5</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1582,11 +1588,11 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1594,7 +1600,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1602,17 +1608,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1620,7 +1626,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1628,13 +1634,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1646,7 +1652,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1654,17 +1660,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1672,7 +1678,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1680,17 +1686,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1698,7 +1704,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1706,17 +1712,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1724,7 +1730,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1732,13 +1738,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1758,17 +1764,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1776,7 +1782,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1784,17 +1790,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>30.079999999999998</v>
+        <v>55</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1802,7 +1808,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1810,13 +1816,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>59.5</v>
+        <v>30.079999999999998</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1828,7 +1834,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1836,13 +1842,13 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>66</v>
+        <v>59.5</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
@@ -1854,7 +1860,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1862,17 +1868,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1880,7 +1886,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1888,17 +1894,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1906,7 +1912,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1914,17 +1920,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1932,7 +1938,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1940,17 +1946,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1958,7 +1964,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1966,17 +1972,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1992,17 +1998,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2010,7 +2016,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2024,11 +2030,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2036,7 +2042,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2044,17 +2050,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2062,7 +2068,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2070,17 +2076,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2096,7 +2102,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -2106,7 +2112,7 @@
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2114,7 +2120,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2122,17 +2128,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2140,7 +2146,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2148,17 +2154,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2174,17 +2180,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2192,7 +2198,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2200,13 +2206,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2218,7 +2224,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2226,17 +2232,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2244,7 +2250,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2252,17 +2258,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2270,7 +2276,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2278,17 +2284,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2304,17 +2310,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2322,7 +2328,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2330,13 +2336,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2348,7 +2354,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2356,17 +2362,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2388,11 +2394,11 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2408,17 +2414,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2426,7 +2432,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2434,17 +2440,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2452,7 +2458,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2460,13 +2466,13 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>21.559999999999999</v>
+        <v>75</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
@@ -2478,7 +2484,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2486,13 +2492,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>28</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2504,7 +2510,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2512,17 +2518,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2530,7 +2536,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2538,17 +2544,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2564,17 +2570,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2582,7 +2588,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2590,17 +2596,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2608,7 +2614,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2616,17 +2622,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2642,17 +2648,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2660,7 +2666,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2668,17 +2674,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2686,7 +2692,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2694,17 +2700,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2712,7 +2718,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2720,17 +2726,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2738,7 +2744,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2746,13 +2752,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2764,7 +2770,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2772,17 +2778,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2790,7 +2796,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2798,17 +2804,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>37.600000000000001</v>
+        <v>58</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2816,7 +2822,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2824,17 +2830,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>144</v>
+        <v>37.600000000000001</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2842,7 +2848,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2850,17 +2856,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>12</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2868,7 +2874,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2876,17 +2882,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2902,17 +2908,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>68.310000000000002</v>
+        <v>84</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2920,7 +2926,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2928,13 +2934,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>35</v>
+        <v>68.310000000000002</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2946,7 +2952,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2954,13 +2960,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2972,7 +2978,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2980,17 +2986,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2998,7 +3004,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3006,17 +3012,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3024,7 +3030,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3032,13 +3038,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3050,7 +3056,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3058,17 +3064,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3076,7 +3082,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3084,17 +3090,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>531</v>
+        <v>41</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3102,7 +3108,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3110,17 +3116,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>-96</v>
+        <v>531</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3128,7 +3134,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3136,17 +3142,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>11</v>
+        <v>-96</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3154,7 +3160,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3162,17 +3168,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3180,7 +3186,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3188,13 +3194,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3206,7 +3212,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3214,13 +3220,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3232,7 +3238,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3240,13 +3246,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3258,7 +3264,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3266,13 +3272,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>25.739999999999998</v>
+        <v>120</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3298,11 +3304,11 @@
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>14.67</v>
+        <v>25.739999999999998</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3318,17 +3324,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>34</v>
+        <v>14.67</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3336,7 +3342,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3344,17 +3350,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3370,17 +3376,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3388,7 +3394,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3396,13 +3402,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>-56</v>
+        <v>86</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3422,17 +3428,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>42</v>
+        <v>-56</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3440,7 +3446,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3448,17 +3454,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3466,7 +3472,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3474,17 +3480,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3492,7 +3498,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3506,11 +3512,11 @@
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>375</v>
+        <v>50</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3518,7 +3524,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3526,13 +3532,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3544,7 +3550,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3552,17 +3558,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3584,11 +3590,11 @@
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3604,17 +3610,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>-4</v>
+        <v>10</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3622,7 +3628,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3630,17 +3636,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>50</v>
+        <v>-4</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3648,7 +3654,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3656,13 +3662,13 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
@@ -3674,7 +3680,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3682,13 +3688,13 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
@@ -3700,7 +3706,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3708,13 +3714,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
@@ -3726,7 +3732,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3734,51 +3740,77 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="K109" s="10">
-        <v>5994.1599999999999</v>
-      </c>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="11">
-        <v>143</v>
-      </c>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c t="s" r="F110" s="12">
+    <row r="109" ht="24.75" customHeight="1">
+      <c r="A109" s="6">
+        <v>106</v>
+      </c>
+      <c t="s" r="B109" s="7">
         <v>144</v>
       </c>
-      <c r="G110" s="12"/>
-      <c r="H110" s="13"/>
-      <c t="s" r="I110" s="14">
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c t="s" r="H109" s="8">
+        <v>9</v>
+      </c>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="9">
+        <v>20</v>
+      </c>
+      <c r="M109" s="9"/>
+      <c t="s" r="N109" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" ht="26.25" customHeight="1">
+      <c r="K110" s="10">
+        <v>6009.1599999999999</v>
+      </c>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="11">
         <v>145</v>
       </c>
-      <c r="J110" s="14"/>
-      <c r="K110" s="14"/>
-      <c r="L110" s="14"/>
-      <c r="M110" s="14"/>
-      <c r="N110" s="14"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c t="s" r="F111" s="12">
+        <v>146</v>
+      </c>
+      <c r="G111" s="12"/>
+      <c r="H111" s="13"/>
+      <c t="s" r="I111" s="14">
+        <v>147</v>
+      </c>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="326">
+  <mergeCells count="329">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4101,10 +4133,13 @@
     <mergeCell ref="B108:G108"/>
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
-    <mergeCell ref="K109:N109"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="I110:N110"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="K110:N110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="I111:N111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
